--- a/similarities/split_global/harmonic_similarity_timestamps_131.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_131.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['C#:maj/G#', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:49.440000', '0:02:03.140000')]</t>
+          <t>('0:00:36.600000', '0:00:39')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:26.660000', '0:01:36.120000')]</t>
+          <t>('0:00:39.800000', '0:00:45.400000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=109.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=36.6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=86.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=39.8</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['A', 'D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.400000', '0:00:09.040000'), ('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:02:12.300000', '0:02:17.480000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:03.599751', '0:00:07.761836')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=0.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:00:12.060000', '0:00:17.060000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:14.073123')]</t>
+          <t>('0:01:24', '0:01:30.840000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+          <t>('0:00:08.240000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:00:13.080000', '0:00:19.340000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_43</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:17.860000', '0:00:28.300000')]</t>
+          <t>('0:01:21.100000', '0:01:27.580000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:40.460000', '0:00:43.620000')]</t>
+          <t>('0:00:41.320000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=17.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5']]</t>
+          <t>['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:06.206099')]</t>
+          <t>('0:01:02.900000', '0:01:12.680000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+          <t>('0:00:07.100000', '0:00:27.920000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=62.9</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=7.1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:31.340000', '0:00:33.520000')]</t>
+          <t>('0:01:05.810340', '0:01:11.679931')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:35.220000', '0:00:40')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=31.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_72</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'F:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['D', 'A', 'D', 'G:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+          <t>('0:00:13.280000', '0:00:17.760000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:23.200000', '0:01:31.140000')]</t>
+          <t>('0:00:32.074829', '0:00:39.540045')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=13.28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:min', 'F']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:19.513843', '0:00:26.514661')]</t>
+          <t>('0:04:11.500000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:03.080000', '0:00:13.480000')]</t>
+          <t>('0:00:39.180000', '0:00:53.360000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=19.513843']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=3.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=39.18</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:01.300000', '0:00:02.670000')]</t>
+          <t>('0:00:40.440000', '0:00:43.320000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:12.300000')]</t>
+          <t>('0:00:34.240000', '0:00:40.760000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=40.44</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=9.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=34.24</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>isophonics_150</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C', 'D', 'G']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['E/5', 'F#/4', 'B']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:55.151295', '0:01:00.155195')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:15.730000', '0:00:17.850000')]</t>
+          <t>('0:02:06.195000', '0:02:11.396000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-150#t=55.151295</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=15.73']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=126.195</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/5'], ['G:7', 'C:min', 'F:min']]</t>
+          <t>['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min'], ['E:7', 'A:min', 'D:min']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:24.323000', '0:01:27.713000'), ('0:02:36.152000', '0:02:39.022000')]</t>
+          <t>('0:01:12.500000', '0:01:33.840000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:10.440000', '0:00:22.520000'), ('0:00:07.400000', '0:00:19.820000')]</t>
+          <t>('0:00:16.340000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=156.152']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=72.5</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=10.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=7.4']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=16.34</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:28.020000', '0:00:30.100000')]</t>
+          <t>('0:00:19.480000', '0:00:25.860000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:38.580000', '0:00:43.300000')]</t>
+          <t>('0:00:00.340000', '0:00:02.340000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=28.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=38.58']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:hdim7/A', 'A:min', 'B:hdim7/A', 'A:min']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:53.540000', '0:01:02.380000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:08.840000', '0:00:28.880000')]</t>
+          <t>('0:00:18.800000', '0:00:21.340000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=53.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=8.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['G:min7', 'C:7', 'F:maj', 'F:7/b7', 'Bb:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:20.801000', '0:00:27.165000')]</t>
+          <t>('0:00:17.680000', '0:00:21.610000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
+          <t>('0:00:47.673000', '0:00:55.415000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=47.673</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
